--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.243992</v>
+        <v>0.062802</v>
       </c>
       <c r="H2">
-        <v>0.7319760000000001</v>
+        <v>0.188406</v>
       </c>
       <c r="I2">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="J2">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.50111666666666</v>
+        <v>10.70375566666667</v>
       </c>
       <c r="N2">
-        <v>85.50335</v>
+        <v>32.111267</v>
       </c>
       <c r="O2">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="P2">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="Q2">
-        <v>6.954044457733334</v>
+        <v>0.6722172633779999</v>
       </c>
       <c r="R2">
-        <v>62.58640011960001</v>
+        <v>6.049955370401999</v>
       </c>
       <c r="S2">
-        <v>0.128516299080388</v>
+        <v>0.01534156718755079</v>
       </c>
       <c r="T2">
-        <v>0.128516299080388</v>
+        <v>0.01534156718755079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.243992</v>
+        <v>0.062802</v>
       </c>
       <c r="H3">
-        <v>0.7319760000000001</v>
+        <v>0.188406</v>
       </c>
       <c r="I3">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="J3">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>47.796597</v>
       </c>
       <c r="O3">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="P3">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="Q3">
-        <v>3.887329098408</v>
+        <v>1.000573961598</v>
       </c>
       <c r="R3">
-        <v>34.985961885672</v>
+        <v>9.005165654381999</v>
       </c>
       <c r="S3">
-        <v>0.07184094839648709</v>
+        <v>0.0228354335632969</v>
       </c>
       <c r="T3">
-        <v>0.07184094839648711</v>
+        <v>0.0228354335632969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.243992</v>
+        <v>0.062802</v>
       </c>
       <c r="H4">
-        <v>0.7319760000000001</v>
+        <v>0.188406</v>
       </c>
       <c r="I4">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="J4">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203003666666666</v>
+        <v>7.036919999999999</v>
       </c>
       <c r="N4">
-        <v>27.609011</v>
+        <v>21.11076</v>
       </c>
       <c r="O4">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627383</v>
       </c>
       <c r="P4">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627384</v>
       </c>
       <c r="Q4">
-        <v>2.245459270637333</v>
+        <v>0.4419326498399999</v>
       </c>
       <c r="R4">
-        <v>20.209133435736</v>
+        <v>3.97739384856</v>
       </c>
       <c r="S4">
-        <v>0.04149788183725809</v>
+        <v>0.01008593472566061</v>
       </c>
       <c r="T4">
-        <v>0.0414978818372581</v>
+        <v>0.01008593472566061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5410386666666668</v>
+        <v>0.5410386666666667</v>
       </c>
       <c r="H5">
         <v>1.623116</v>
       </c>
       <c r="I5">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="J5">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.50111666666666</v>
+        <v>10.70375566666667</v>
       </c>
       <c r="N5">
-        <v>85.50335</v>
+        <v>32.111267</v>
       </c>
       <c r="O5">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="P5">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="Q5">
-        <v>15.42020615984445</v>
+        <v>5.791145694219111</v>
       </c>
       <c r="R5">
-        <v>138.7818554386</v>
+        <v>52.120311247972</v>
       </c>
       <c r="S5">
-        <v>0.2849777332838276</v>
+        <v>0.1321674637070406</v>
       </c>
       <c r="T5">
-        <v>0.2849777332838276</v>
+        <v>0.1321674637070406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5410386666666668</v>
+        <v>0.5410386666666667</v>
       </c>
       <c r="H6">
         <v>1.623116</v>
       </c>
       <c r="I6">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="J6">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>47.796597</v>
       </c>
       <c r="O6">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="P6">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="Q6">
-        <v>8.619935704028002</v>
+        <v>8.619935704028</v>
       </c>
       <c r="R6">
-        <v>77.57942133625201</v>
+        <v>77.579421336252</v>
       </c>
       <c r="S6">
-        <v>0.159303300651268</v>
+        <v>0.1967270553141844</v>
       </c>
       <c r="T6">
-        <v>0.159303300651268</v>
+        <v>0.1967270553141844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5410386666666668</v>
+        <v>0.5410386666666667</v>
       </c>
       <c r="H7">
         <v>1.623116</v>
       </c>
       <c r="I7">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="J7">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.203003666666666</v>
+        <v>7.036919999999999</v>
       </c>
       <c r="N7">
-        <v>27.609011</v>
+        <v>21.11076</v>
       </c>
       <c r="O7">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627383</v>
       </c>
       <c r="P7">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627384</v>
       </c>
       <c r="Q7">
-        <v>4.979180833141778</v>
+        <v>3.80724581424</v>
       </c>
       <c r="R7">
-        <v>44.812627498276</v>
+        <v>34.26521232816</v>
       </c>
       <c r="S7">
-        <v>0.09201924103544788</v>
+        <v>0.0868902371908291</v>
       </c>
       <c r="T7">
-        <v>0.09201924103544788</v>
+        <v>0.08689023719082911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2238046666666667</v>
+        <v>0.6974063333333334</v>
       </c>
       <c r="H8">
-        <v>0.6714140000000001</v>
+        <v>2.092219</v>
       </c>
       <c r="I8">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="J8">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.50111666666666</v>
+        <v>10.70375566666667</v>
       </c>
       <c r="N8">
-        <v>85.50335</v>
+        <v>32.111267</v>
       </c>
       <c r="O8">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="P8">
-        <v>0.5313771903239843</v>
+        <v>0.3178747217938744</v>
       </c>
       <c r="Q8">
-        <v>6.378682915211111</v>
+        <v>7.464866992385889</v>
       </c>
       <c r="R8">
-        <v>57.4081462369</v>
+        <v>67.183802931473</v>
       </c>
       <c r="S8">
-        <v>0.1178831579597687</v>
+        <v>0.1703656908992831</v>
       </c>
       <c r="T8">
-        <v>0.1178831579597687</v>
+        <v>0.1703656908992831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2238046666666667</v>
+        <v>0.6974063333333334</v>
       </c>
       <c r="H9">
-        <v>0.6714140000000001</v>
+        <v>2.092219</v>
       </c>
       <c r="I9">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="J9">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>47.796597</v>
       </c>
       <c r="O9">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="P9">
-        <v>0.2970412436577956</v>
+        <v>0.4731463873433873</v>
       </c>
       <c r="Q9">
-        <v>3.565700486462</v>
+        <v>11.111216486527</v>
       </c>
       <c r="R9">
-        <v>32.091304378158</v>
+        <v>100.000948378743</v>
       </c>
       <c r="S9">
-        <v>0.06589699461004048</v>
+        <v>0.253583898465906</v>
       </c>
       <c r="T9">
-        <v>0.06589699461004049</v>
+        <v>0.2535838984659061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2238046666666667</v>
+        <v>0.6974063333333334</v>
       </c>
       <c r="H10">
-        <v>0.6714140000000001</v>
+        <v>2.092219</v>
       </c>
       <c r="I10">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="J10">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.203003666666666</v>
+        <v>7.036919999999999</v>
       </c>
       <c r="N10">
-        <v>27.609011</v>
+        <v>21.11076</v>
       </c>
       <c r="O10">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627383</v>
       </c>
       <c r="P10">
-        <v>0.1715815660182201</v>
+        <v>0.2089788908627384</v>
       </c>
       <c r="Q10">
-        <v>2.059675167950444</v>
+        <v>4.90759257516</v>
       </c>
       <c r="R10">
-        <v>18.537076511554</v>
+        <v>44.16833317644</v>
       </c>
       <c r="S10">
-        <v>0.03806444314551406</v>
+        <v>0.1120027189462486</v>
       </c>
       <c r="T10">
-        <v>0.03806444314551407</v>
+        <v>0.1120027189462486</v>
       </c>
     </row>
   </sheetData>
